--- a/documentation/ProposalContentStudentNameRev02.xlsx
+++ b/documentation/ProposalContentStudentNameRev02.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Submission Date</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Brief description of planned purchases</t>
   </si>
   <si>
-    <t>SensorEffector</t>
-  </si>
-  <si>
     <t>Erick Cantos</t>
   </si>
   <si>
@@ -74,25 +71,25 @@
     <t>Will be a home automation system that will control/dim/change ambient lighting and record temp</t>
   </si>
   <si>
-    <t>Being able to customize the light over an RGB spectrum over wi-fi</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Raspberry pi, arduino, LED, thermistor module</t>
-  </si>
-  <si>
     <t>https://github.com/ErickCantos13/MyRepository</t>
   </si>
   <si>
-    <t>The purpose of the project to modernize the house and make it easier to access/control devices through a smartphone without going to the actual device itself</t>
-  </si>
-  <si>
     <t>Vera, G. A., Abdelnour, A., Sarkis, M., Georgiadis, A., Kaddour, D., &amp; Tedjini, S. (2016). Passive RFID-enabled proximity sensor. Microwave Symposium (IMS), 2016 IEEE MTT-S International. Page Numbers. DOI: 10.1109/MWSYM.2016.7539961</t>
   </si>
   <si>
     <t>Heakeme, Slava</t>
+  </si>
+  <si>
+    <t>DMX light</t>
+  </si>
+  <si>
+    <t>Raspberry pi, DMX light, thermistor module, photo resistor, RFID-enables proximity sensor.</t>
+  </si>
+  <si>
+    <t>The purpose of the project to modernize the house and make it easier to access/control devices</t>
+  </si>
+  <si>
+    <t>Being able to customize the light over an RGB spectrum over wi-fi, recording surround temperature</t>
   </si>
 </sst>
 </file>
@@ -492,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -516,7 +513,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -524,7 +521,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -532,7 +529,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
@@ -540,7 +537,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
@@ -548,7 +545,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
@@ -556,7 +553,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
@@ -564,7 +561,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
@@ -599,7 +596,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
@@ -607,7 +604,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
@@ -707,7 +704,7 @@
       </c>
       <c r="B2" s="2" t="str">
         <f>DataEntry!B2</f>
-        <v>SensorEffector</v>
+        <v>DMX light</v>
       </c>
       <c r="C2" s="2" t="str">
         <f>DataEntry!B3</f>
@@ -727,7 +724,7 @@
       </c>
       <c r="G2" s="2" t="str">
         <f>DataEntry!B7</f>
-        <v>Being able to customize the light over an RGB spectrum over wi-fi</v>
+        <v>Being able to customize the light over an RGB spectrum over wi-fi, recording surround temperature</v>
       </c>
       <c r="H2" s="2" t="str">
         <f>DataEntry!B8</f>
@@ -735,11 +732,11 @@
       </c>
       <c r="I2" s="2" t="str">
         <f>DataEntry!B9</f>
-        <v>N/A</v>
+        <v>Heakeme, Slava</v>
       </c>
       <c r="J2" s="2" t="str">
         <f>DataEntry!B10</f>
-        <v>The purpose of the project to modernize the house and make it easier to access/control devices through a smartphone without going to the actual device itself</v>
+        <v>The purpose of the project to modernize the house and make it easier to access/control devices</v>
       </c>
       <c r="K2" s="2">
         <f>DataEntry!B11</f>
@@ -755,7 +752,7 @@
       </c>
       <c r="N2" s="2" t="str">
         <f>DataEntry!B14</f>
-        <v>Raspberry pi, arduino, LED, thermistor module</v>
+        <v>Raspberry pi, DMX light, thermistor module, photo resistor, RFID-enables proximity sensor.</v>
       </c>
       <c r="O2" s="2">
         <f>DataEntry!B15</f>

--- a/documentation/ProposalContentStudentNameRev02.xlsx
+++ b/documentation/ProposalContentStudentNameRev02.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18201"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="9368" windowHeight="6263"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="9366" windowHeight="4740"/>
   </bookViews>
   <sheets>
     <sheet name="DataEntry" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Submission Date</t>
   </si>
@@ -65,31 +65,40 @@
     <t>Erick Cantos</t>
   </si>
   <si>
-    <t>The temperature and how long the lights have been on</t>
-  </si>
-  <si>
-    <t>Will be a home automation system that will control/dim/change ambient lighting and record temp</t>
-  </si>
-  <si>
-    <t>https://github.com/ErickCantos13/MyRepository</t>
-  </si>
-  <si>
     <t>Vera, G. A., Abdelnour, A., Sarkis, M., Georgiadis, A., Kaddour, D., &amp; Tedjini, S. (2016). Passive RFID-enabled proximity sensor. Microwave Symposium (IMS), 2016 IEEE MTT-S International. Page Numbers. DOI: 10.1109/MWSYM.2016.7539961</t>
   </si>
   <si>
-    <t>Heakeme, Slava</t>
-  </si>
-  <si>
-    <t>DMX light</t>
-  </si>
-  <si>
-    <t>Raspberry pi, DMX light, thermistor module, photo resistor, RFID-enables proximity sensor.</t>
-  </si>
-  <si>
-    <t>The purpose of the project to modernize the house and make it easier to access/control devices</t>
-  </si>
-  <si>
-    <t>Being able to customize the light over an RGB spectrum over wi-fi, recording surround temperature</t>
+    <t>https://erickcantos13.github.io/SensorEffector/</t>
+  </si>
+  <si>
+    <t>Control a DMX light by wirelessly transporting DMX signals to the device</t>
+  </si>
+  <si>
+    <t>Different attributes about the DMX light; hue, spectrum, longevity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMX light - RSlinx Reciever </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Dashboard/Menu that allows the user to customize specific lighting preferences. </t>
+  </si>
+  <si>
+    <t>Crystal Fountains</t>
+  </si>
+  <si>
+    <t>Vyacheslav Perepelytsya, Heakeme Williams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Users should have the ability to automate or control DMX lights at home without having to purchase such expensive equipment.  Thus, the raspberry pi will bring provide an inexpensive demonstration of achieving similar effects to professional illuminations. In addition, Illuminating the home should provide a wireless DMX connection where the integration of customization is possible. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lighting control becomes key when setting a mood/tone for theatrical-performances, movies, or even at home. DMX lighting is commonly controlled through a DMX-512 controller which works with DMX signal protocols, and an networks of lights may become established by daisy chaining DMX lights together. </t>
+  </si>
+  <si>
+    <t>Raspberry pi, DMX light. More specifics can be found in the analytical budget.</t>
+  </si>
+  <si>
+    <t>Hopefully bringing this propsal to the real world will solve the problem.</t>
   </si>
 </sst>
 </file>
@@ -490,17 +499,17 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.734375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="19.73046875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="69.86328125" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="8.73046875" style="2"/>
+    <col min="1" max="1" width="19.734375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="69.83984375" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="8.734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -508,15 +517,15 @@
         <v>42993</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -524,92 +533,100 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12"/>
-    </row>
-    <row r="13" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="B12" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2" t="s">
         <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -630,12 +647,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.734375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="16384" width="8.73046875" style="2"/>
+    <col min="1" max="16384" width="8.734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="114" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="str">
         <f>DataEntry!A1</f>
         <v>Submission Date</v>
@@ -697,14 +714,14 @@
         <v>Solution description</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="57" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2">
         <f>DataEntry!B1</f>
         <v>42993</v>
       </c>
       <c r="B2" s="2" t="str">
         <f>DataEntry!B2</f>
-        <v>DMX light</v>
+        <v xml:space="preserve">DMX light - RSlinx Reciever </v>
       </c>
       <c r="C2" s="2" t="str">
         <f>DataEntry!B3</f>
@@ -712,39 +729,39 @@
       </c>
       <c r="D2" s="2" t="str">
         <f>DataEntry!B4</f>
-        <v>https://github.com/ErickCantos13/MyRepository</v>
+        <v>https://erickcantos13.github.io/SensorEffector/</v>
       </c>
       <c r="E2" s="2" t="str">
         <f>DataEntry!B5</f>
-        <v>Will be a home automation system that will control/dim/change ambient lighting and record temp</v>
+        <v>Control a DMX light by wirelessly transporting DMX signals to the device</v>
       </c>
       <c r="F2" s="2" t="str">
         <f>DataEntry!B6</f>
-        <v>The temperature and how long the lights have been on</v>
+        <v>Different attributes about the DMX light; hue, spectrum, longevity</v>
       </c>
       <c r="G2" s="2" t="str">
         <f>DataEntry!B7</f>
-        <v>Being able to customize the light over an RGB spectrum over wi-fi, recording surround temperature</v>
+        <v xml:space="preserve">A Dashboard/Menu that allows the user to customize specific lighting preferences. </v>
       </c>
       <c r="H2" s="2" t="str">
         <f>DataEntry!B8</f>
-        <v>Heakeme, Slava</v>
+        <v>Crystal Fountains</v>
       </c>
       <c r="I2" s="2" t="str">
         <f>DataEntry!B9</f>
-        <v>Heakeme, Slava</v>
+        <v>Vyacheslav Perepelytsya, Heakeme Williams</v>
       </c>
       <c r="J2" s="2" t="str">
         <f>DataEntry!B10</f>
-        <v>The purpose of the project to modernize the house and make it easier to access/control devices</v>
-      </c>
-      <c r="K2" s="2">
+        <v xml:space="preserve">Users should have the ability to automate or control DMX lights at home without having to purchase such expensive equipment.  Thus, the raspberry pi will bring provide an inexpensive demonstration of achieving similar effects to professional illuminations. In addition, Illuminating the home should provide a wireless DMX connection where the integration of customization is possible. </v>
+      </c>
+      <c r="K2" s="2" t="str">
         <f>DataEntry!B11</f>
-        <v>0</v>
-      </c>
-      <c r="L2" s="2">
+        <v xml:space="preserve">Lighting control becomes key when setting a mood/tone for theatrical-performances, movies, or even at home. DMX lighting is commonly controlled through a DMX-512 controller which works with DMX signal protocols, and an networks of lights may become established by daisy chaining DMX lights together. </v>
+      </c>
+      <c r="L2" s="2" t="str">
         <f>DataEntry!B12</f>
-        <v>0</v>
+        <v>Vera, G. A., Abdelnour, A., Sarkis, M., Georgiadis, A., Kaddour, D., &amp; Tedjini, S. (2016). Passive RFID-enabled proximity sensor. Microwave Symposium (IMS), 2016 IEEE MTT-S International. Page Numbers. DOI: 10.1109/MWSYM.2016.7539961</v>
       </c>
       <c r="M2" s="2" t="str">
         <f>DataEntry!B13</f>
@@ -752,11 +769,11 @@
       </c>
       <c r="N2" s="2" t="str">
         <f>DataEntry!B14</f>
-        <v>Raspberry pi, DMX light, thermistor module, photo resistor, RFID-enables proximity sensor.</v>
-      </c>
-      <c r="O2" s="2">
+        <v>Raspberry pi, DMX light. More specifics can be found in the analytical budget.</v>
+      </c>
+      <c r="O2" s="2" t="str">
         <f>DataEntry!B15</f>
-        <v>0</v>
+        <v>Hopefully bringing this propsal to the real world will solve the problem.</v>
       </c>
     </row>
   </sheetData>
